--- a/Pet Detective (PD)/PD_PuLP/PD_PuLP.xlsx
+++ b/Pet Detective (PD)/PD_PuLP/PD_PuLP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="150" windowWidth="10515" windowHeight="12345" tabRatio="727" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="150" windowWidth="10515" windowHeight="12345" tabRatio="727" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="PD3" sheetId="14" r:id="rId1"/>
@@ -15381,7 +15381,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A75" sqref="A75:B75"/>
     </sheetView>
   </sheetViews>
@@ -24712,7 +24712,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A87" sqref="A87:B87"/>
     </sheetView>
   </sheetViews>
@@ -31947,7 +31947,7 @@
 prob += prob.objective &gt;= KNOWN_OBJ, "MIN_OBJ"                 
 #SOLVER ---------------------------------------------------------------
 prob.writeLP("PD11.lp")              # Write the problem as an LP file
-#prob.solve()                        # Solve the problem using the default solver
+prob.solve()                        # Solve the problem using the default solver
 #prob.solve(COIN_CMD(msg=1))        #solve using CBC with logging
 #prob.solve(COIN_CMD(msg=1, fracGap = 0.0))          #solve using CBC
 #CALC TIME  ---------------------------------------------------------------
@@ -31997,7 +31997,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B69DB25-8000-4400-AD1F-8903B195B297}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DAF6268-46A3-4A36-A71A-41B2FAE25E2C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://opensolver.org"/>
